--- a/biology/Zoologie/Antenne_d'Eltanin/Antenne_d'Eltanin.xlsx
+++ b/biology/Zoologie/Antenne_d'Eltanin/Antenne_d'Eltanin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Antenne_d%27Eltanin</t>
+          <t>Antenne_d'Eltanin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'antenne d'Eltanin est une curiosité océanographique qui fut durant près de 40 ans à l'origine de bien des interprétations.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Antenne_d%27Eltanin</t>
+          <t>Antenne_d'Eltanin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette curiosité sous-marine doit son à une équipe scientifique américaine transportée par l'USNS Eltanin, un navire océanographique. Eltanin est le nom original (et arabe) de l'étoile dénommée scientifiquement Gamma Draconis.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Antenne_d%27Eltanin</t>
+          <t>Antenne_d'Eltanin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle doit son origine à un cliché d'une équipe de mission océanographique en 1964 au large de l'Antarctique.
 Ce cliché représente ce qui semble ressembler à une antenne située à 4 115 mètres de profondeur.
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Antenne_d%27Eltanin</t>
+          <t>Antenne_d'Eltanin</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Théories sur son origine</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Sa présence à cette profondeur suscita bien des controverses[1]:
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Sa présence à cette profondeur suscita bien des controverses:
 Une théorie lié à la guerre froide a tout d'abord évoqué une antenne relais de télémétrie perdue ou déposée secrètement par un navire soviétique
 Les tenants de théories mythologiques pensaient qu'il s'agissait d'une preuve de l'existence d'une ancienne civilisation inconnue technologiquement très avancée qui aurait peuplé l'Antarctique dans des temps très lointains.
 Des théories ufologiques avançaient qu'il s'agissait d'un relais extraterrestre.</t>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Antenne_d%27Eltanin</t>
+          <t>Antenne_d'Eltanin</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,9 +625,11 @@
           <t>Explication scientifique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Depuis 2005, une autre théorie suggère qu'il pourrait s'agir d'une espèce d'éponge très particulière, une cladorhizidae de genre Cladorhiza concrescens.[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis 2005, une autre théorie suggère qu'il pourrait s'agir d'une espèce d'éponge très particulière, une cladorhizidae de genre Cladorhiza concrescens..
 </t>
         </is>
       </c>
